--- a/CoreRulebook/Data/transfiguration.xlsx
+++ b/CoreRulebook/Data/transfiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB813DC6-0127-49B9-8FC7-99A0A08FD8F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB58389-9812-44DE-A9FE-52A43A345B81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24900" yWindow="3930" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,10 +536,10 @@
     <t>Potion Mixing Spell</t>
   </si>
   <si>
-    <t>1d20 INT \\ (Flora \&amp; Fauna)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Used to mix a potion. See page \pageref{S:Enchanting} for details. </t>
+  </si>
+  <si>
+    <t>1d20 INT \\ (Arcane)</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1039,10 @@
   <dimension ref="A1:AMK36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1874,13 +1874,13 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/transfiguration.xlsx
+++ b/CoreRulebook/Data/transfiguration.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -112,6 +112,27 @@
     <t xml:space="preserve">Alters the colour and style of the casters hair. Useful for disguises. Degrades after 5 hours.</t>
   </si>
   <si>
+    <t xml:space="preserve">Launch Spike \\ {\it voco dens}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjure 1 enormous spike (+ 1 for each power point) to transfigure itself from the surrounding walls/floor, impaling the target. Each spike does 1d6 piercing damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion Mixing Spell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT \\ (arcane)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to mix a potion. See page \pageref{S:Enchanting} for details. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Silver Shield Spell \\ {\it argentipus}</t>
   </si>
   <si>
@@ -137,12 +158,6 @@
       </rPr>
       <t xml:space="preserve">ferscabere}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Dependent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW</t>
   </si>
   <si>
     <t xml:space="preserve">Transfigures an animal{\apos}s claws into large steel talons, increasing their physical damage by +5 . Each power point dedicated gives these talons + 2 damage.  Lasts for 1 day.</t>
@@ -158,12 +173,6 @@
 Each power point doubles the mass of objects that can be transformed.  Lasts for 1 hour. </t>
   </si>
   <si>
-    <t xml:space="preserve">Launch Spike \\ {\it voco dens}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjure 1 enormous spike (+ 1 for each power point) to transfigure itself from the surrounding walls/floor, impaling the target. Each spike does 1d6 piercing damage. </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -231,6 +240,12 @@
 Lasts 1 day.</t>
   </si>
   <si>
+    <t xml:space="preserve">Make Trecherous \\ {\it transgresso}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform the ground in a 5m radius around target into a deep bog, a bed of sharpened blades, or into a sticky mess, with the associated terrain costs. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -303,18 +318,30 @@
     <t xml:space="preserve">3: Adept</t>
   </si>
   <si>
+    <t xml:space="preserve">FIN \\ (flora \&amp; fauna)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Summons a flock of 6 small birds (+1 for each power point) to do your bidding. Each bird has 1HP and can do 1d4 of piercing damage. Lasts for 10 minutes. </t>
   </si>
   <si>
     <t xml:space="preserve">Conjure object</t>
   </si>
   <si>
-    <t xml:space="preserve">FIN \\ {dexterity}</t>
+    <t xml:space="preserve">FIN \\ (precision)</t>
   </si>
   <si>
     <t xml:space="preserve">Conjure a 200g inanimate, non-magical object from thin air. Each power point dedicated doubles the mass/complexity of the object that can be conjured</t>
   </si>
   <si>
+    <t xml:space="preserve">Enchantment Ritual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN \\ (arcane)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The enchantment ritual used to imbue items with magical effects. See page \pageref{S:Enchanting} for details. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Golem Creation Spell \\ {\it lapis libiri}</t>
   </si>
   <si>
@@ -322,21 +349,6 @@
   </si>
   <si>
     <t xml:space="preserve">Breathe life into a block of inanimate matter, turning it into a hulking Golem. Basic spell produces a Weak Stone Golem. 1 power point gives a weak iron golem, 2 gives a weak crystal golem, 3 a capable stone golem and so on. Require a large amount of the golem material to cast. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make Trecherous \\ {\it transgresso}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform the ground in a 5m radius into a deep bog, a bed of sharpened blades, or into a sticky mess, with the associated terrain costs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Switching Hex \\ {\it  protenius}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the material that the target is made up of. The change is monolithic: you change the entirety of the target into a single material (i.e. no subdivisions). </t>
   </si>
   <si>
     <r>
@@ -500,7 +512,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Transform 1d6 small objects into miniature dragons to fight by your side. Dragons have 8HP and do 1d6 fire damage
+    <t xml:space="preserve">INT \\ (flora \&amp; fauna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform 1d6 small objects into miniature dragons to fight by your side. Dragons have 18HP and do 5d4 fire damage
 Each power point dedicated to the spell gives dragons +1 HP and attack.</t>
   </si>
   <si>
@@ -594,9 +609,6 @@
     <t xml:space="preserve">Summon Master Avatar \\ {\it caro elementum}</t>
   </si>
   <si>
-    <t xml:space="preserve">INT \\ (arcane)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Summon an Strong Avatar of your choice (Storm, Ice or Fire) to be under your command for 30 turns, after which it dissolves. </t>
   </si>
   <si>
@@ -609,25 +621,10 @@
     <t xml:space="preserve">You assume the form of any object you wish, provided it has approximately the same size as you. You are indistinguishable from this object until you choose to break the spell. </t>
   </si>
   <si>
-    <t xml:space="preserve">Enchantment Ritual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d20 FIN \\ (arcane)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The enchantment ritual used to imbue items with magical effects. See page \pageref{S:Enchanting} for details. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potion Mixing Spell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d20 INT \\ (Arcane)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to mix a potion. See page \pageref{S:Enchanting} for details. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjure Barrage</t>
+    <t xml:space="preserve">Banish \\ {\it valeo fendus}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target summoned creature performs a 1d12 Resist check against the casting check. If it fails, creature is destroyed.</t>
   </si>
 </sst>
 </file>
@@ -758,37 +755,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -868,26 +857,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="80.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="169.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -910,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -929,11 +918,11 @@
       <c r="F2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -952,11 +941,11 @@
       <c r="F3" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -975,471 +964,471 @@
       <c r="F4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="D6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="F9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3" t="n">
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="G21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F24" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>75</v>
       </c>
@@ -1447,277 +1436,272 @@
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="3" t="n">
+      <c r="E27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="3" t="n">
+      <c r="E28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="1" t="n">
+      <c r="G28" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="1" t="n">
+      <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="1" t="n">
+      <c r="G29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="3" t="n">
+      <c r="E30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F31" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="3" t="n">
+      <c r="E32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="26.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="3" t="n">
+      <c r="G32" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="3" t="n">
+      <c r="E33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="G33" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="1" t="n">
+      <c r="D34" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>16</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>19</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/transfiguration.xlsx
+++ b/CoreRulebook/Data/transfiguration.xlsx
@@ -864,7 +864,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F33" activeCellId="0" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CoreRulebook/Data/transfiguration.xlsx
+++ b/CoreRulebook/Data/transfiguration.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="162">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">Difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResistDV</t>
   </si>
   <si>
     <t xml:space="preserve">Effect</t>
@@ -140,7 +146,10 @@
     <t xml:space="preserve">POW</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjure (1+PP) enormous spikes to transfigure itself from the surrounding walls/floor, impaling the target. Each spike does 1d6 piercing damage. </t>
+    <t xml:space="preserve">ATH (Speed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjure (1+PP) enormous spikes to transfigure itself from the surrounding walls/floor, impaling the target. Each spike does 1d6 piercing damage. Resist for half damage.</t>
   </si>
   <si>
     <t xml:space="preserve">An expert-level caster may do 1d12 piercing damage per spike</t>
@@ -302,7 +311,10 @@
     <t xml:space="preserve">1 minute</t>
   </si>
   <si>
-    <t xml:space="preserve">Transforms the air around the target into a thick soup, slowing their movement by (20+10 $\times$ PP) \% </t>
+    <t xml:space="preserve">ATH (Strength)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transforms the air around the target into a thick soup, slowing their movement by (20+10 $\times$ PP) \%. Resist for half the speed reduction. </t>
   </si>
   <si>
     <t xml:space="preserve">Alter Size</t>
@@ -326,7 +338,7 @@
     <t xml:space="preserve">incarcerous</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjures thick ropes from thin air, to wrap around the target, immobilising them. Target must perform an ATH(strength) check (DV 15) to break free. </t>
+    <t xml:space="preserve">Conjures thick ropes from thin air, to wrap around the target, immobilising them. Target may Resist once per turn to break free.</t>
   </si>
   <si>
     <t xml:space="preserve">Conjure Object</t>
@@ -412,7 +424,13 @@
     <t xml:space="preserve">valeo fendus</t>
   </si>
   <si>
-    <t xml:space="preserve">Target summoned creature performs a INT(endurance) Resist check against the casting check. If it fails, creature is destroyed.</t>
+    <t xml:space="preserve">INT (Endurance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target a summoned creature, if it fails to Resist, it is banished from this plane of existence. </t>
   </si>
   <si>
     <t xml:space="preserve">Draconic Guardians</t>
@@ -454,7 +472,7 @@
     <t xml:space="preserve">POW </t>
   </si>
   <si>
-    <t xml:space="preserve">When cast on any transfigured or conjured object, fixes that transfiguration and removes the time constraint. This spell can be broken, at which point the time constraints are reinstated. </t>
+    <t xml:space="preserve">When cast on any transfigured or conjured object, makes the transformation permanent and removes the time constraint. When a counterspell is used, this spell is removed and the countdown resumes. </t>
   </si>
   <si>
     <t xml:space="preserve">When cast by a caster greater than 15th level, this spell may be cast as an Instant spell. </t>
@@ -482,7 +500,7 @@
   </si>
   <si>
     <t xml:space="preserve">Causes (15+$5\times$PP) daggers to coalesce out of smoke, and fly towards the target. 
-Each dagger that hits the target does 1d8 piercing damage.  
+Each dagger that hits the target does 1d4 piercing damage, a successful Resist halves the damage done. 
 </t>
   </si>
   <si>
@@ -637,17 +655,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M31" activeCellId="0" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="34.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.29"/>
@@ -655,12 +673,14 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="86.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="36.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="86.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="36.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,25 +711,31 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1</v>
@@ -718,30 +744,30 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -750,33 +776,33 @@
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1</v>
@@ -785,27 +811,27 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
@@ -814,24 +840,24 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -843,24 +869,30 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
@@ -872,33 +904,33 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1</v>
@@ -907,30 +939,30 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>1</v>
@@ -939,27 +971,27 @@
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>2</v>
@@ -968,24 +1000,24 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0</v>
@@ -997,36 +1029,36 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>2</v>
@@ -1035,27 +1067,27 @@
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>2</v>
@@ -1064,27 +1096,27 @@
         <v>8</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>2</v>
@@ -1093,30 +1125,30 @@
         <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>2</v>
@@ -1125,33 +1157,33 @@
         <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>2</v>
@@ -1160,30 +1192,36 @@
         <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>3</v>
@@ -1192,27 +1230,27 @@
         <v>7</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>3</v>
@@ -1221,27 +1259,33 @@
         <v>6</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>3</v>
@@ -1250,30 +1294,30 @@
         <v>8</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>0</v>
@@ -1285,27 +1329,27 @@
         <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>0</v>
@@ -1317,33 +1361,33 @@
         <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>3</v>
@@ -1352,30 +1396,30 @@
         <v>7</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>0</v>
@@ -1387,24 +1431,24 @@
         <v>9</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="29.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>0</v>
@@ -1416,30 +1460,30 @@
         <v>8</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>0</v>
@@ -1451,30 +1495,36 @@
         <v>8</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>4</v>
@@ -1483,33 +1533,33 @@
         <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>4</v>
@@ -1518,27 +1568,27 @@
         <v>13</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M27" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>0</v>
@@ -1550,30 +1600,30 @@
         <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>4</v>
@@ -1582,30 +1632,30 @@
         <v>11</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="29.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>0</v>
@@ -1617,30 +1667,36 @@
         <v>15</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>5</v>
@@ -1649,30 +1705,30 @@
         <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>5</v>
@@ -1681,27 +1737,27 @@
         <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>0</v>
@@ -1713,13 +1769,13 @@
         <v>16</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>155</v>
+      <c r="M33" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/transfiguration.xlsx
+++ b/CoreRulebook/Data/transfiguration.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="194">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -131,9 +131,6 @@
     <t xml:space="preserve">3 days</t>
   </si>
   <si>
-    <t xml:space="preserve">EMP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conjures flowers from thin air.</t>
   </si>
   <si>
@@ -161,7 +158,7 @@
     <t xml:space="preserve">Ritual(5 turns)</t>
   </si>
   <si>
-    <t xml:space="preserve">Arcane</t>
+    <t xml:space="preserve">Flora \&amp; Fauna</t>
   </si>
   <si>
     <t xml:space="preserve">Used to mix a potion. See page \pageref{S:Enchanting} for details. </t>
@@ -257,7 +254,7 @@
     <t xml:space="preserve">Freezes a non-living object into its current form, and can no longer bend or flex. Object gains an effective AC of 25. </t>
   </si>
   <si>
-    <t xml:space="preserve">Make Trecherous</t>
+    <t xml:space="preserve">Trecherous Terrain</t>
   </si>
   <si>
     <t xml:space="preserve">transgresso</t>
@@ -293,6 +290,9 @@
     <t xml:space="preserve">(2 + 2$\times$ PP) minutes</t>
   </si>
   <si>
+    <t xml:space="preserve">Arcane</t>
+  </si>
+  <si>
     <t xml:space="preserve">Summon a Weak Avatar of your choice (Storm, Ice or Fire) to be under your command .</t>
   </si>
   <si>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t xml:space="preserve">Blue bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flora \&amp; Fauna</t>
   </si>
   <si>
     <t xml:space="preserve">The magical bolt breaks apart into a flock of (6+$4\times$PP) small birds, which do your bidding. Each bird has 3HP and can do 1d4 of piercing damage. The birds will follow the orders of the caster as long as concentration is maintained. When concentration is broken, the birds continue with their last order.</t>
@@ -538,6 +535,107 @@
   </si>
   <si>
     <t xml:space="preserve">You assume the form of any object you wish, provided it has approximately the same size as you. You are indistinguishable from this object until you choose to break the spell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">glisser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN (Dexterity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst concentration is maintained, up to 1 square metre of the targeted surface becomes slippery, as if it was covered in grease. When a target touches the effected surface and fails the resist check, they fall over/ drop the item as appropriate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by an expert-level caster, this spell also makes staircases transform into greased chutes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Featherweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pluma gravitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make the target object as light as a feather, it does not encumber you.
+(Note that heavy weapons such as axes may lose their effectiveness when made featherweight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironmass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferrus gravitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make the target object so heavy that it cannot be lifted by a single individual. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preserve Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tempocessus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target is unaffected by the flow of time for the duration of the spell, and does not rot or otherwise decay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alter Aura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change how the object is registers when viewed by magical means (I.e {\it Identify}) – make a mundane object appear magical, or make a wizard appear as a non-sapient creature. 
+Because this spell truly alters the object\apos{} astral nature, it is not effected by illusion-immunity effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimmering Confetti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chamak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjures a shower of golden, shimmering particles to cover every person and surface in a (2+PP)m radius. Creatures with an INT &lt; 9 become distracted and vulnerable to critical strikes for one turn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternal Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue flames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon a minor fire spirit. If you have a glass container, you may use it trap the spirit, whereupon it acts as a dim torch (bright light 1m, dim light 2m) and as a heat source sufficient to keep one person comfortable in artcic conditions. If the spirit is not trapped, caster takes 2d6 fire damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sculpt Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perseids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sculpt a target solid object with your mind, as if it were made of soft clay. The total mass of the object must remain constant, but you can shift and scult the matter at will. </t>
   </si>
 </sst>
 </file>
@@ -547,7 +645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -582,6 +680,24 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -591,12 +707,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF999999"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -625,7 +756,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -638,15 +769,131 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -655,23 +902,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M31" activeCellId="0" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="34.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.09"/>
@@ -840,21 +1088,21 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -869,30 +1117,30 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
@@ -907,27 +1155,27 @@
         <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -945,24 +1193,24 @@
         <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>1</v>
@@ -971,21 +1219,21 @@
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1006,15 +1254,15 @@
         <v>6</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1032,13 +1280,13 @@
         <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>26</v>
@@ -1046,16 +1294,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>30</v>
@@ -1067,21 +1315,21 @@
         <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -1102,21 +1350,21 @@
         <v>6</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>2</v>
@@ -1125,30 +1373,30 @@
         <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>6</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>2</v>
@@ -1160,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>8</v>
@@ -1192,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>6</v>
@@ -1259,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>7</v>
@@ -1329,10 +1577,10 @@
         <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>10</v>
@@ -1364,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>0</v>
@@ -1387,7 +1635,7 @@
         <v>113</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>3</v>
@@ -1399,13 +1647,13 @@
         <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>5</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>102</v>
@@ -1413,10 +1661,10 @@
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
@@ -1437,15 +1685,15 @@
         <v>6</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
@@ -1466,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>102</v>
@@ -1474,10 +1722,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
@@ -1497,28 +1745,25 @@
       <c r="H25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="J25" s="1" t="n">
         <v>8</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
@@ -1535,31 +1780,28 @@
       <c r="H26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="J26" s="1" t="n">
         <v>11</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>4</v>
@@ -1574,21 +1816,21 @@
         <v>10</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>0</v>
@@ -1600,30 +1842,30 @@
         <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>11</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>4</v>
@@ -1635,27 +1877,27 @@
         <v>31</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>11</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="29.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>0</v>
@@ -1670,33 +1912,33 @@
         <v>24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>13</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>5</v>
@@ -1705,30 +1947,30 @@
         <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>17</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>5</v>
@@ -1740,21 +1982,21 @@
         <v>31</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>17</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>16</v>
@@ -1775,7 +2017,285 @@
         <v>14</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>161</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" s="10" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="E36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="38.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="0"/>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
